--- a/stocks/stocks.xlsx
+++ b/stocks/stocks.xlsx
@@ -14,6 +14,23 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E0" authorId="0">
+      <text>
+        <r>
+          <t>test</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="2004">
   <si>
@@ -21,7 +38,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Purchase         </t>
+    <t xml:space="preserve">Purchase    </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -33,7 +50,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Profit     </t>
+    <t xml:space="preserve">Profit   </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -25360,5 +25377,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/stocks/stocks.xlsx
+++ b/stocks/stocks.xlsx
@@ -45,8 +45,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="177" formatCode="$#,##0_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -9371,3002 +9371,3002 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="999">
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E2">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E3">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E4">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E5">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E6">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E7">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E8">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E9">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E10">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E11">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E12">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E13">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E14">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E15">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E16">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E17">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E18">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E19">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E20">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E21">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E22">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E23">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E24">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E25">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E26">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E27">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E28">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E29">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E30">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E31">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E32">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E33">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E34">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E35">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E36">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E37">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E38">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E39">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E40">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E41">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E42">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E43">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E44">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E45">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E46">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E47">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E48">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E49">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E50">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E51">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E52">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E53">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E54">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E55">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E56">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E57">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E58">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E59">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E60">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E61">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E62">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E63">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E64">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E65">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E66">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E67">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E68">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E69">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E70">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E71">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E72">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E73">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E74">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E75">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E76">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E77">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E78">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E79">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E80">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E81">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E82">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E83">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E84">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E85">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E86">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E87">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E88">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E89">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E90">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E91">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E92">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E93">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E94">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E95">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E96">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E97">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E98">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E99">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E100">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E101">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E102">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E103">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E104">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E105">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E106">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E107">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E108">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E109">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E110">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E111">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E112">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E113">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E114">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E115">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E116">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E117">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E118">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E119">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E120">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E121">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E122">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E123">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E124">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E125">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E126">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E127">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E128">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E129">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E130">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E131">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E132">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E133">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E134">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E135">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E136">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E137">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E138">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E139">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E140">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E141">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E142">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E143">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E144">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E145">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E146">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E147">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E148">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E149">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E150">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E151">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E152">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E153">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E154">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E155">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E156">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E157">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E158">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E159">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E160">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E161">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E162">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E163">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E164">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E165">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E166">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E167">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E168">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E169">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E170">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E171">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E172">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E173">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E174">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E175">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E176">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E177">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E178">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E179">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E180">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E181">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E182">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E183">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E184">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E185">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E186">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E187">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E188">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E189">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E190">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E191">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E192">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E193">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E194">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E195">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E196">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E197">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E198">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E199">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E200">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E201">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E202">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E203">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E204">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E205">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E206">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E207">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E208">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E209">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E210">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E211">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E212">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E213">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E214">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E215">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E216">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E217">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E218">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E219">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E220">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E221">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E222">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E223">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E224">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E225">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E226">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E227">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E228">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E229">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E230">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E231">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E232">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E233">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E234">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E235">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E236">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E237">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E238">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E239">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E240">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E241">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E242">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E243">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E244">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E245">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E246">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E247">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E248">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E249">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E250">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E251">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E252">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E253">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E254">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E255">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E256">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E257">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E258">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E259">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E260">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E261">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E262">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E263">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E264">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E265">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E266">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E267">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E268">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E269">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E270">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E271">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E272">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E273">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E274">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E275">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E276">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E277">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E278">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E279">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E280">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E281">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E282">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E283">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E284">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E285">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E286">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E287">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E288">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E289">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E290">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E291">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E292">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E293">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E294">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E295">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E296">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E297">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E298">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E299">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E300">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E301">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E302">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E303">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E304">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E305">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E306">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E307">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E308">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E309">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E310">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E311">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E312">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E313">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E314">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E315">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E316">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E317">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E318">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E319">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E320">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E321">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E322">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E323">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E324">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E325">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E326">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E327">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E328">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E329">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E330">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E331">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E332">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E333">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E334">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E335">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E336">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E337">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E338">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E339">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E340">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E341">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E342">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E343">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E344">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E345">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E346">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E347">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E348">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E349">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E350">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E351">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E352">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E353">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E354">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E355">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E356">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E357">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E358">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E359">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E360">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E361">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E362">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E363">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E364">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E365">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E366">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E367">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E368">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E369">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E370">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E371">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E372">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E373">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E374">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E375">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E376">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E377">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E378">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E379">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E380">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E381">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E382">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E383">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E384">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E385">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E386">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E387">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E388">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E389">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E390">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E391">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E392">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E393">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E394">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E395">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E396">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E397">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E398">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E399">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E400">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E401">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E402">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E403">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E404">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E405">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E406">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E407">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E408">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E409">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E410">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E411">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E412">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E413">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E414">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E415">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E416">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E417">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E418">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E419">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E420">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E421">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E422">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E423">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E424">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E425">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E426">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E427">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E428">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E429">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E430">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E431">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E432">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E433">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E434">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E435">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E436">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E437">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E438">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E439">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E440">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E441">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E442">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E443">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E444">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E445">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E446">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E447">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E448">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E449">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E450">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E451">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E452">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E453">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E454">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E455">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E456">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E457">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E458">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E459">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E460">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E461">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E462">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E463">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E464">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E465">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E466">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E467">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E468">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E469">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E470">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E471">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E472">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E473">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E474">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E475">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E476">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E477">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E478">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E479">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E480">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E481">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E482">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E483">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E484">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E485">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E486">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E487">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E488">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E489">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E490">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E491">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E492">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E493">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E494">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E495">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E496">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E497">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E498">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E499">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E500">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E501">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E502">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E503">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E504">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E505">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E506">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E507">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E508">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E509">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E510">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E511">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E512">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E513">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E514">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E515">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E516">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E517">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E518">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E519">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E520">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E521">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E522">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E523">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E524">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E525">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E526">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E527">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E528">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E529">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E530">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E531">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E532">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E533">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E534">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E535">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E536">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E537">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E538">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E539">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E540">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E541">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E542">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E543">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E544">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E545">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E546">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E547">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E548">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E549">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E550">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E551">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E552">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E553">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E554">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E555">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E556">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E557">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E558">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E559">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E560">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E561">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E562">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E563">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E564">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E565">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E566">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E567">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E568">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E569">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E570">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E571">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E572">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E573">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E574">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E575">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E576">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E577">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E578">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E579">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E580">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E581">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E582">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E583">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E584">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E585">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E586">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E587">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E588">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E589">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E590">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E591">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E592">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E593">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E594">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E595">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E596">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E597">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E598">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E599">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E600">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E601">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E602">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E603">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E604">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E605">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E606">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E607">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E608">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E609">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E610">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E611">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E612">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E613">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E614">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E615">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E616">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E617">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E618">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E619">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E620">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E621">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E622">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E623">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E624">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E625">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E626">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E627">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E628">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E629">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E630">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E631">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E632">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E633">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E634">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E635">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E636">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E637">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E638">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E639">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E640">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E641">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E642">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E643">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E644">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E645">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E646">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E647">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E648">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E649">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E650">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E651">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E652">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E653">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E654">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E655">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E656">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E657">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E658">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E659">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E660">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E661">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E662">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E663">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E664">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E665">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E666">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E667">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E668">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E669">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E670">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E671">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E672">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E673">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E674">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E675">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E676">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E677">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E678">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E679">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E680">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E681">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E682">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E683">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E684">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E685">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E686">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E687">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E688">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E689">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E690">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E691">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E692">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E693">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E694">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E695">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E696">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E697">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E698">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E699">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E700">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E701">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E702">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E703">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E704">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E705">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E706">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E707">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E708">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E709">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E710">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E711">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E712">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E713">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E714">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E715">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E716">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E717">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E718">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E719">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E720">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E721">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E722">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E723">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E724">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E725">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E726">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E727">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E728">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E729">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E730">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E731">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E732">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E733">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E734">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E735">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E736">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E737">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E738">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E739">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E740">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E741">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E742">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E743">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E744">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E745">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E746">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E747">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E748">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E749">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E750">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E751">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E752">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E753">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E754">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E755">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E756">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E757">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E758">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E759">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E760">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E761">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E762">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E763">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E764">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E765">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E766">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E767">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E768">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E769">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E770">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E771">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E772">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E773">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E774">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E775">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E776">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E777">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E778">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E779">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E780">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E781">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E782">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E783">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E784">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E785">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E786">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E787">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E788">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E789">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E790">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E791">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E792">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E793">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E794">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E795">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E796">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E797">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E798">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E799">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E800">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E801">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E802">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E803">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E804">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E805">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E806">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E807">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E808">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E809">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E810">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E811">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E812">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E813">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E814">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E815">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E816">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E817">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E818">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E819">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E820">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E821">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E822">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E823">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E824">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E825">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E826">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E827">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E828">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E829">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E830">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E831">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E832">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E833">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E834">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E835">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E836">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E837">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E838">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E839">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E840">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E841">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E842">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E843">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E844">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E845">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E846">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E847">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E848">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E849">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E850">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E851">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E852">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E853">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E854">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E855">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E856">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E857">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E858">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E859">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E860">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E861">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E862">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E863">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E864">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E865">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E866">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E867">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E868">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E869">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E870">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E871">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E872">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E873">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E874">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E875">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E876">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E877">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E878">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E879">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E880">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E881">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E882">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E883">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E884">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E885">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E886">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E887">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E888">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E889">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E890">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E891">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E892">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E893">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E894">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E895">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E896">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E897">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E898">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E899">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E900">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E901">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E902">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E903">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E904">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E905">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E906">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E907">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E908">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E909">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E910">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E911">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E912">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E913">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E914">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E915">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E916">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E917">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E918">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E919">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E920">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E921">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E922">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E923">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E924">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E925">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E926">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E927">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E928">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E929">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E930">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E931">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E932">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E933">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E934">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E935">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E936">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E937">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E938">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E939">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E940">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E941">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E942">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E943">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E944">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E945">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E946">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E947">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E948">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E949">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E950">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E951">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E952">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E953">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E954">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E955">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E956">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E957">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E958">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E959">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E960">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E961">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E962">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E963">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E964">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E965">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E966">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E967">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E968">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E969">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E970">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E971">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E972">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E973">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E974">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E975">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E976">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E977">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E978">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E979">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E980">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E981">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E982">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E983">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E984">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E985">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E986">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E987">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E988">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E989">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E990">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E991">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E992">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E993">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E994">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E995">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E996">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E997">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E998">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E999">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list &quot;Buy,Sell,&quot;Option Assigned&quot;,&quot;Carry-forward&quot;,&quot;Reinvest&quot;,&quot;RSU Vest&quot;&quot;" sqref="E1000">
-      <formula1>"Buy,Sell,"Option Assigned","Carry-forward","Reinvest","RSU Vest""</formula1>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E2">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E3">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E4">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E5">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E6">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E7">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E8">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E9">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E10">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E11">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E12">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E13">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E14">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E15">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E16">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E17">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E18">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E19">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E20">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E21">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E22">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E23">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E24">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E25">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E26">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E27">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E28">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E29">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E30">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E31">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E32">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E33">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E34">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E35">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E36">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E37">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E38">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E39">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E40">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E41">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E42">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E43">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E44">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E45">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E46">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E47">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E48">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E49">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E50">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E51">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E52">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E53">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E54">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E55">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E56">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E57">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E58">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E59">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E60">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E61">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E62">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E63">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E64">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E65">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E66">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E67">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E68">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E69">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E70">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E71">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E72">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E73">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E74">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E75">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E76">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E77">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E78">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E79">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E80">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E81">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E82">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E83">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E84">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E85">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E86">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E87">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E88">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E89">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E90">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E91">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E92">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E93">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E94">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E95">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E96">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E97">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E98">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E99">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E100">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E101">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E102">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E103">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E104">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E105">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E106">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E107">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E108">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E109">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E110">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E111">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E112">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E113">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E114">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E115">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E116">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E117">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E118">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E119">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E120">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E121">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E122">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E123">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E124">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E125">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E126">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E127">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E128">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E129">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E130">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E131">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E132">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E133">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E134">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E135">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E136">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E137">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E138">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E139">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E140">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E141">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E142">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E143">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E144">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E145">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E146">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E147">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E148">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E149">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E150">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E151">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E152">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E153">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E154">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E155">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E156">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E157">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E158">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E159">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E160">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E161">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E162">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E163">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E164">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E165">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E166">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E167">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E168">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E169">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E170">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E171">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E172">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E173">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E174">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E175">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E176">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E177">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E178">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E179">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E180">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E181">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E182">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E183">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E184">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E185">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E186">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E187">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E188">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E189">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E190">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E191">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E192">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E193">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E194">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E195">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E196">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E197">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E198">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E199">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E200">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E201">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E202">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E203">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E204">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E205">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E206">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E207">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E208">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E209">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E210">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E211">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E212">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E213">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E214">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E215">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E216">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E217">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E218">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E219">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E220">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E221">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E222">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E223">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E224">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E225">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E226">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E227">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E228">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E229">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E230">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E231">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E232">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E233">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E234">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E235">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E236">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E237">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E238">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E239">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E240">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E241">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E242">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E243">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E244">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E245">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E246">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E247">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E248">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E249">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E250">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E251">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E252">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E253">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E254">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E255">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E256">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E257">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E258">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E259">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E260">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E261">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E262">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E263">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E264">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E265">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E266">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E267">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E268">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E269">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E270">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E271">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E272">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E273">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E274">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E275">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E276">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E277">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E278">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E279">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E280">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E281">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E282">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E283">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E284">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E285">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E286">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E287">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E288">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E289">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E290">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E291">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E292">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E293">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E294">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E295">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E296">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E297">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E298">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E299">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E300">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E301">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E302">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E303">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E304">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E305">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E306">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E307">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E308">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E309">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E310">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E311">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E312">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E313">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E314">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E315">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E316">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E317">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E318">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E319">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E320">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E321">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E322">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E323">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E324">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E325">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E326">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E327">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E328">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E329">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E330">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E331">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E332">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E333">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E334">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E335">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E336">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E337">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E338">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E339">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E340">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E341">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E342">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E343">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E344">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E345">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E346">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E347">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E348">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E349">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E350">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E351">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E352">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E353">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E354">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E355">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E356">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E357">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E358">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E359">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E360">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E361">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E362">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E363">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E364">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E365">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E366">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E367">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E368">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E369">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E370">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E371">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E372">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E373">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E374">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E375">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E376">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E377">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E378">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E379">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E380">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E381">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E382">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E383">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E384">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E385">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E386">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E387">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E388">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E389">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E390">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E391">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E392">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E393">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E394">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E395">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E396">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E397">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E398">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E399">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E400">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E401">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E402">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E403">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E404">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E405">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E406">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E407">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E408">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E409">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E410">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E411">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E412">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E413">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E414">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E415">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E416">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E417">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E418">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E419">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E420">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E421">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E422">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E423">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E424">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E425">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E426">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E427">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E428">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E429">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E430">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E431">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E432">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E433">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E434">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E435">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E436">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E437">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E438">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E439">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E440">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E441">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E442">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E443">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E444">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E445">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E446">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E447">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E448">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E449">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E450">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E451">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E452">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E453">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E454">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E455">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E456">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E457">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E458">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E459">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E460">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E461">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E462">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E463">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E464">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E465">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E466">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E467">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E468">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E469">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E470">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E471">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E472">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E473">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E474">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E475">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E476">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E477">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E478">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E479">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E480">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E481">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E482">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E483">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E484">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E485">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E486">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E487">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E488">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E489">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E490">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E491">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E492">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E493">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E494">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E495">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E496">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E497">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E498">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E499">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E500">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E501">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E502">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E503">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E504">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E505">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E506">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E507">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E508">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E509">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E510">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E511">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E512">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E513">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E514">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E515">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E516">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E517">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E518">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E519">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E520">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E521">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E522">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E523">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E524">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E525">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E526">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E527">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E528">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E529">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E530">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E531">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E532">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E533">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E534">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E535">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E536">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E537">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E538">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E539">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E540">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E541">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E542">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E543">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E544">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E545">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E546">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E547">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E548">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E549">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E550">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E551">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E552">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E553">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E554">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E555">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E556">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E557">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E558">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E559">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E560">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E561">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E562">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E563">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E564">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E565">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E566">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E567">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E568">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E569">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E570">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E571">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E572">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E573">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E574">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E575">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E576">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E577">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E578">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E579">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E580">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E581">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E582">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E583">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E584">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E585">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E586">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E587">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E588">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E589">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E590">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E591">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E592">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E593">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E594">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E595">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E596">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E597">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E598">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E599">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E600">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E601">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E602">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E603">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E604">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E605">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E606">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E607">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E608">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E609">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E610">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E611">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E612">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E613">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E614">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E615">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E616">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E617">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E618">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E619">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E620">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E621">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E622">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E623">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E624">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E625">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E626">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E627">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E628">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E629">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E630">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E631">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E632">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E633">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E634">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E635">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E636">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E637">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E638">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E639">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E640">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E641">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E642">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E643">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E644">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E645">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E646">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E647">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E648">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E649">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E650">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E651">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E652">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E653">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E654">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E655">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E656">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E657">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E658">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E659">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E660">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E661">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E662">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E663">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E664">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E665">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E666">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E667">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E668">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E669">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E670">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E671">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E672">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E673">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E674">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E675">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E676">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E677">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E678">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E679">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E680">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E681">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E682">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E683">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E684">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E685">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E686">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E687">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E688">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E689">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E690">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E691">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E692">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E693">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E694">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E695">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E696">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E697">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E698">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E699">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E700">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E701">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E702">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E703">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E704">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E705">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E706">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E707">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E708">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E709">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E710">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E711">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E712">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E713">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E714">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E715">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E716">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E717">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E718">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E719">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E720">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E721">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E722">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E723">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E724">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E725">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E726">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E727">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E728">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E729">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E730">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E731">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E732">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E733">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E734">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E735">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E736">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E737">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E738">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E739">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E740">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E741">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E742">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E743">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E744">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E745">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E746">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E747">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E748">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E749">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E750">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E751">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E752">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E753">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E754">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E755">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E756">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E757">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E758">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E759">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E760">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E761">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E762">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E763">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E764">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E765">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E766">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E767">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E768">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E769">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E770">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E771">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E772">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E773">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E774">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E775">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E776">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E777">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E778">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E779">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E780">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E781">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E782">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E783">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E784">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E785">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E786">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E787">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E788">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E789">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E790">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E791">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E792">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E793">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E794">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E795">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E796">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E797">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E798">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E799">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E800">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E801">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E802">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E803">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E804">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E805">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E806">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E807">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E808">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E809">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E810">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E811">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E812">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E813">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E814">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E815">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E816">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E817">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E818">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E819">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E820">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E821">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E822">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E823">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E824">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E825">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E826">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E827">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E828">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E829">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E830">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E831">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E832">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E833">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E834">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E835">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E836">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E837">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E838">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E839">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E840">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E841">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E842">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E843">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E844">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E845">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E846">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E847">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E848">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E849">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E850">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E851">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E852">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E853">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E854">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E855">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E856">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E857">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E858">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E859">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E860">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E861">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E862">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E863">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E864">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E865">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E866">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E867">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E868">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E869">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E870">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E871">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E872">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E873">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E874">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E875">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E876">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E877">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E878">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E879">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E880">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E881">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E882">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E883">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E884">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E885">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E886">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E887">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E888">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E889">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E890">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E891">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E892">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E893">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E894">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E895">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E896">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E897">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E898">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E899">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E900">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E901">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E902">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E903">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E904">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E905">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E906">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E907">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E908">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E909">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E910">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E911">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E912">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E913">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E914">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E915">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E916">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E917">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E918">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E919">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E920">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E921">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E922">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E923">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E924">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E925">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E926">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E927">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E928">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E929">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E930">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E931">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E932">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E933">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E934">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E935">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E936">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E937">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E938">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E939">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E940">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E941">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E942">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E943">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E944">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E945">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E946">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E947">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E948">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E949">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E950">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E951">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E952">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E953">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E954">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E955">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E956">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E957">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E958">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E959">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E960">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E961">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E962">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E963">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E964">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E965">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E966">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E967">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E968">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E969">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E970">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E971">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E972">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E973">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E974">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E975">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E976">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E977">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E978">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E979">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E980">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E981">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E982">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E983">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E984">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E985">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E986">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E987">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E988">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E989">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E990">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E991">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E992">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E993">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E994">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E995">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E996">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E997">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E998">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E999">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" operator="equal" showErrorMessage="1" prompt="Value in list: &quot;Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest&quot;" sqref="E1000">
+      <formula1>"Buy, Sell, Option Assigned, Carry-forward, Reinvest, RSU Vest"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
